--- a/data/trans_orig/IP22D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D3_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C273678-D45D-4448-B9AA-F4AB712ACA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D97F26-DDC3-4573-841D-AA47B532FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5EBA9D2-4231-4E1D-A452-EAE47DEE2855}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79950732-9933-495B-8537-A86DD8379E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,34%</t>
+    <t>39,37%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>27,83%</t>
+    <t>29,75%</t>
   </si>
   <si>
     <t>8,86%</t>
@@ -92,7 +92,7 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>23,73%</t>
+    <t>24,6%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -101,7 +101,7 @@
     <t>86,83%</t>
   </si>
   <si>
-    <t>56,66%</t>
+    <t>60,63%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>72,17%</t>
+    <t>70,25%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>76,27%</t>
+    <t>75,4%</t>
   </si>
   <si>
     <t>97,43%</t>
@@ -149,49 +149,49 @@
     <t>19,27%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>31,45%</t>
+    <t>34,97%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>68,55%</t>
+    <t>65,03%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -203,13 +203,13 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -218,37 +218,37 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>26,79%</t>
+    <t>27,34%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>24,99%</t>
+    <t>26,04%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>16,96%</t>
+    <t>18,02%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>67,75%</t>
+    <t>66,32%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>75,01%</t>
+    <t>73,96%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>76,89%</t>
+    <t>76,05%</t>
   </si>
   <si>
     <t>98,25%</t>
@@ -257,7 +257,7 @@
     <t>5,54%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>29,33%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -266,7 +266,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>15,83%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -281,52 +281,55 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>28,44%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -338,61 +341,61 @@
     <t>13,63%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,51%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -401,19 +404,19 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -828,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52B1A-F93D-4155-8FD2-C70E0961FC8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC308B2B-067A-4530-984D-AC377720C168}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1756,10 +1759,10 @@
         <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1777,13 @@
         <v>13388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -1789,13 +1792,13 @@
         <v>18125</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -1804,13 +1807,13 @@
         <v>31513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1861,7 +1864,7 @@
         <v>29</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1912,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>6738</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -1995,13 +1998,13 @@
         <v>3560</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -2010,13 +2013,13 @@
         <v>10298</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2034,13 @@
         <v>41321</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -2046,13 +2049,13 @@
         <v>40800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -2061,13 +2064,13 @@
         <v>82120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2085,13 @@
         <v>854</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2103,7 +2106,7 @@
         <v>29</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2112,13 +2115,13 @@
         <v>854</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2136,13 @@
         <v>504</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2154,7 +2157,7 @@
         <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2163,13 +2166,13 @@
         <v>504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,7 +2228,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22D3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D97F26-DDC3-4573-841D-AA47B532FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E962FCF2-1980-4C96-A91C-BE4FE16A9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79950732-9933-495B-8537-A86DD8379E0C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B971716F-FC2C-4C5B-87C0-FDA87D8AACFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,55 +71,55 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -128,12 +128,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -146,52 +146,49 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -200,223 +197,223 @@
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -831,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC308B2B-067A-4530-984D-AC377720C168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D42BC1-08F6-49A0-8A56-74608744D3B8}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -949,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>785</v>
+        <v>350</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -964,10 +961,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>347</v>
+        <v>790</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -982,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1000,10 +997,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>5179</v>
+        <v>6652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1015,10 +1012,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>6471</v>
+        <v>5471</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1033,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>11649</v>
+        <v>12121</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1153,25 +1150,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7002</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>5964</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
       <c r="I8" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>34</v>
@@ -1186,7 +1183,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1206,31 +1203,31 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2270</v>
+        <v>491</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2526</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>491</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>40</v>
@@ -1239,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>2761</v>
+        <v>3018</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>41</v>
@@ -1257,10 +1254,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>9001</v>
+        <v>7568</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -1269,28 +1266,28 @@
         <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9492</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7098</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>16098</v>
+        <v>17059</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>49</v>
@@ -1299,7 +1296,7 @@
         <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1320,37 +1317,37 @@
         <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1359,49 +1356,49 @@
         <v>33</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>504</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>519</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,25 +1407,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="7">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
-        <v>11775</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
       <c r="I13" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>34</v>
@@ -1443,7 +1440,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>34</v>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1466,46 +1463,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>804</v>
+        <v>438</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>443</v>
+        <v>824</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1248</v>
+        <v>1262</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,31 +1511,31 @@
         <v>19</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>13753</v>
+        <v>9069</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>9107</v>
+        <v>14969</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>22</v>
@@ -1547,16 +1544,16 @@
         <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>22860</v>
+        <v>24039</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,49 +1562,49 @@
         <v>28</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>854</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>925</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,37 +1625,37 @@
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,25 +1664,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="7">
         <v>19</v>
       </c>
-      <c r="D18" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
       <c r="I18" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>34</v>
@@ -1700,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>34</v>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1723,46 +1720,46 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2878</v>
+        <v>2256</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2279</v>
+        <v>2988</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>5157</v>
+        <v>5244</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,49 +1768,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7">
+        <v>21342</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="7">
-        <v>13388</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>14768</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="7">
-        <v>23</v>
-      </c>
-      <c r="I20" s="7">
-        <v>18125</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
       </c>
       <c r="N20" s="7">
-        <v>31513</v>
+        <v>36110</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1849,22 +1846,22 @@
         <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,7 +1882,7 @@
         <v>29</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1900,22 +1897,22 @@
         <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,25 +1921,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23598</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="7">
         <v>17</v>
       </c>
-      <c r="D23" s="7">
-        <v>16266</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="7">
-        <v>26</v>
-      </c>
       <c r="I23" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>34</v>
@@ -1957,7 +1954,7 @@
         <v>43</v>
       </c>
       <c r="N23" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>34</v>
@@ -1977,49 +1974,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3536</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
-        <v>6738</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>7129</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3560</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>10298</v>
+        <v>10664</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2025,49 @@
         <v>19</v>
       </c>
       <c r="C25" s="7">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7">
+        <v>44630</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="7">
         <v>53</v>
       </c>
-      <c r="D25" s="7">
-        <v>41321</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>44699</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="7">
-        <v>57</v>
-      </c>
-      <c r="I25" s="7">
-        <v>40800</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
       </c>
       <c r="N25" s="7">
-        <v>82120</v>
+        <v>89329</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +2076,49 @@
         <v>28</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>854</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>925</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,49 +2127,49 @@
         <v>33</v>
       </c>
       <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
-        <v>504</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="I27" s="7">
+        <v>519</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,25 +2178,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="7">
         <v>64</v>
       </c>
-      <c r="D28" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="7">
-        <v>63</v>
-      </c>
       <c r="I28" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>34</v>
@@ -2214,7 +2211,7 @@
         <v>127</v>
       </c>
       <c r="N28" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>34</v>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
